--- a/1.xlsx
+++ b/1.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -356,185 +352,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>42855.899305555555</v>
+        <v>42844.899942129632</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>42855.899305555555</v>
+        <v>42832.899942129632</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42855.899305555555</v>
+        <v>42846.899942129632</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42855.899305555555</v>
+        <v>42847.899942129632</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42855.899305555555</v>
+        <v>42848.899942129632</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>42855.899305555555</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>42855.899305555555</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>42855.899305555555</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>42855.899305555555</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>42855.899305555555</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>42836.899942129632</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>42837.899942129632</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>42838.899942129632</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>42839.899942129632</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>42840.899942129632</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>42841.899942129632</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>42842.899942129632</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>42843.899942129632</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>42844.899942129632</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>42845.899942129632</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>42846.899942129632</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>42847.899942129632</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>42848.899942129632</v>
-      </c>
-      <c r="B23">
         <v>7</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -339,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,6 +390,471 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>42847.899942129632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>42848.899942129632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>42844.899942129632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>42832.899942129632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>42846.899942129632</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="947">
   <si>
     <t>name</t>
   </si>
@@ -2719,86 +2719,158 @@
     <t>Zany Zebra</t>
   </si>
   <si>
-    <t>EGIGame</t>
-  </si>
-  <si>
-    <t>888 Gold</t>
-  </si>
-  <si>
-    <t>黄金888</t>
-  </si>
-  <si>
-    <t>Wolf Gold</t>
-  </si>
-  <si>
-    <t>金狼</t>
-  </si>
-  <si>
-    <t>Journey to the West</t>
-  </si>
-  <si>
-    <t>西天取经</t>
-  </si>
-  <si>
-    <t>Dragon Kingdom</t>
-  </si>
-  <si>
-    <t>神龙界</t>
-  </si>
-  <si>
-    <t>888 Dragons</t>
-  </si>
-  <si>
-    <t>发发发龙</t>
-  </si>
-  <si>
-    <t>8 Dragons</t>
-  </si>
-  <si>
-    <t>龙发</t>
-  </si>
-  <si>
-    <t>Dwarven Gold Deluxe</t>
-  </si>
-  <si>
-    <t>矮人黄金</t>
-  </si>
-  <si>
-    <t>Hot Safari</t>
-  </si>
-  <si>
-    <t>野生动物园</t>
-  </si>
-  <si>
-    <t>3 Kingdoms - Battle of Red Cliffs</t>
-  </si>
-  <si>
-    <t>三國之赤壁之戰</t>
-  </si>
-  <si>
-    <t>7 Monkeys</t>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只猴子</t>
-    </r>
+    <t>More Monkeys H5</t>
+  </si>
+  <si>
+    <t>更多猴子</t>
+  </si>
+  <si>
+    <t>MoreMonkeysH5</t>
+  </si>
+  <si>
+    <t>Stacks of Cheese</t>
+  </si>
+  <si>
+    <t>堆叠奶酪</t>
+  </si>
+  <si>
+    <t>StacksOfCheese</t>
+  </si>
+  <si>
+    <t>Super Kids</t>
+  </si>
+  <si>
+    <t>超级宝贝</t>
+  </si>
+  <si>
+    <t>SuperKids</t>
+  </si>
+  <si>
+    <t>Hot Volcano H5</t>
+  </si>
+  <si>
+    <t>炽热火山</t>
+  </si>
+  <si>
+    <t>HotVolcanoH5</t>
+  </si>
+  <si>
+    <t>Fortune Pays H5</t>
+  </si>
+  <si>
+    <t>招财进宝</t>
+  </si>
+  <si>
+    <t>FortunePayH5</t>
+  </si>
+  <si>
+    <t>Huluwa</t>
+  </si>
+  <si>
+    <t>葫芦娃</t>
+  </si>
+  <si>
+    <t>Legend Of Link H5</t>
+  </si>
+  <si>
+    <t>林克的传说</t>
+  </si>
+  <si>
+    <t>LegendOfLinkH5</t>
+  </si>
+  <si>
+    <t>Detective Black Cat</t>
+  </si>
+  <si>
+    <t>黑猫警长</t>
+  </si>
+  <si>
+    <t>DetectiveBlackCat</t>
+  </si>
+  <si>
+    <t>Frogs N Flies H5</t>
+  </si>
+  <si>
+    <t>捕蝇大赛</t>
+  </si>
+  <si>
+    <t>FrogsNFliesH5</t>
+  </si>
+  <si>
+    <t>Eight Immortals</t>
+  </si>
+  <si>
+    <t>八仙过海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EightImmortals </t>
+  </si>
+  <si>
+    <t>Gong Xi Fa Cai</t>
+  </si>
+  <si>
+    <t>恭喜发财</t>
+  </si>
+  <si>
+    <t>GongXiFaCai</t>
+  </si>
+  <si>
+    <t>Dolphin Gold H5</t>
+  </si>
+  <si>
+    <t>金海豚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DolphinGoldH5 </t>
+  </si>
+  <si>
+    <t>Mad Monkey H5</t>
+  </si>
+  <si>
+    <t>MadMonkeyH5</t>
+  </si>
+  <si>
+    <t>Year of The Monkey H5</t>
+  </si>
+  <si>
+    <t>猴年大吉</t>
+  </si>
+  <si>
+    <t>YearOfTheMonkeyH5</t>
+  </si>
+  <si>
+    <t>Chilli Gold H5</t>
+  </si>
+  <si>
+    <t>火辣金砖</t>
+  </si>
+  <si>
+    <t>ChilliGoldH5</t>
+  </si>
+  <si>
+    <t>Silver Lion H5</t>
+  </si>
+  <si>
+    <t>银狮奖</t>
+  </si>
+  <si>
+    <t>SilverLionH5</t>
+  </si>
+  <si>
+    <t>Dragon King H5</t>
+  </si>
+  <si>
+    <t>海龙王</t>
+  </si>
+  <si>
+    <t>DragonKingH5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2836,29 +2908,22 @@
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2869,12 +2934,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2920,7 +2979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2930,28 +2989,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3247,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3261,33 +3305,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7">
+        <v>1069</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="C1" s="9">
-        <v>14472</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>898</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>902</v>
       </c>
       <c r="C2" s="9">
-        <v>14477</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>898</v>
+        <v>1044</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>903</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3295,16 +3339,16 @@
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="B3" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="C3" s="9">
-        <v>14446</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>898</v>
+      <c r="B3" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1072</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>906</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3312,16 +3356,16 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>906</v>
-      </c>
-      <c r="C4" s="11">
-        <v>14471</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>898</v>
+        <v>907</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>909</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3329,16 +3373,16 @@
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>908</v>
-      </c>
-      <c r="C5" s="9">
-        <v>14481</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>898</v>
+        <v>910</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>912</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3346,16 +3390,16 @@
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>910</v>
-      </c>
-      <c r="C6" s="9">
-        <v>14478</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>898</v>
+        <v>913</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1078</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>913</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3363,16 +3407,16 @@
     </row>
     <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="7" t="s">
-        <v>911</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="C7" s="14">
-        <v>14409</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>898</v>
+        <v>915</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1049</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>917</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3380,16 +3424,16 @@
     </row>
     <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="C8" s="14">
-        <v>14404</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>898</v>
+        <v>918</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1075</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>920</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3397,16 +3441,16 @@
     </row>
     <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="C9" s="9">
-        <v>14476</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>898</v>
+        <v>921</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>923</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3414,80 +3458,136 @@
     </row>
     <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="C10" s="14">
-        <v>14402</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>898</v>
+        <v>924</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1042</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>926</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+    <row r="11" spans="1:7" ht="18.75">
+      <c r="A11" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1073</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>929</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+    <row r="12" spans="1:7" ht="18.75">
+      <c r="A12" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1055</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>932</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="1:7" ht="18.75">
+      <c r="A13" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1051</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>934</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="14" spans="1:7" ht="18.75">
+      <c r="A14" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1054</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>937</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:7" ht="18.75">
+      <c r="A15" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1053</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>940</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+    <row r="16" spans="1:7" ht="18.75">
+      <c r="A16" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>943</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+    <row r="17" spans="1:7" ht="18.75">
+      <c r="A17" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1056</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
